--- a/06_python/DataScraping/book_titles_page1_to_5.xlsx
+++ b/06_python/DataScraping/book_titles_page1_to_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,314 +439,11 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Star Rating</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A Light in the Attic</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>£51.77</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tipping the Velvet</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>£53.74</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Soumission</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>£50.10</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sharp Objects</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>£47.82</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sapiens: A Brief History of Humankind</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>£54.23</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>The Requiem Red</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>£22.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>The Dirty Little Secrets of Getting Your Dream Job</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>£33.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>The Coming Woman: A Novel Based on the Life of the Infamous Feminist, Victoria Woodhull</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>£17.93</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>The Boys in the Boat: Nine Americans and Their Epic Quest for Gold at the 1936 Berlin Olympics</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>£22.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>The Black Maria</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>£52.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Starving Hearts (Triangular Trade Trilogy, #1)</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>£13.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Shakespeare's Sonnets</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>£20.66</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Set Me Free</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>£17.46</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Scott Pilgrim's Precious Little Life (Scott Pilgrim #1)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>£52.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Rip it Up and Start Again</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>£35.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Our Band Could Be Your Life: Scenes from the American Indie Underground, 1981-1991</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>£57.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Olio</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>£23.88</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mesaerion: The Best Science Fiction Stories 1800-1849</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>£37.59</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Libertarianism for Beginners</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>£51.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>It's Only the Himalayas</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>£45.17</t>
+          <t>Sample Book</t>
         </is>
       </c>
     </row>
